--- a/数据调查.xlsx
+++ b/数据调查.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>卫星名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,41 @@
   </si>
   <si>
     <t>tiff文件能够正常打开，但是看不出每张栅格对应的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2017-2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.25 km x 1.29 km</t>
+  </si>
+  <si>
+    <t>OCO-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://disc.gsfc.nasa.gov/datasets/OCO2_Eph_11r/summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processing Level为0，Eph对于数据定位和校正很关键，Att对于数据处理和分析很重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +193,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,9 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -489,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -598,12 +641,42 @@
         <v>28</v>
       </c>
     </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/数据调查.xlsx
+++ b/数据调查.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="110">
   <si>
     <t>卫星名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,13 +165,317 @@
   <si>
     <t>Processing Level为0，Eph对于数据定位和校正很关键，Att对于数据处理和分析很重要</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1979-2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3小时？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMS 全球反演优化的温室气体通量和浓度 --- CAMS global inversion-optimised greenhouse gas fluxes and concentrations (copernicus.eu)</t>
+  </si>
+  <si>
+    <t>NetCDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9°×3.75°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩尔分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不清楚，看上去是全球陆地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="Inherit"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">CAMS </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全球反演优化的温室气体通量和浓度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>不是一手的遥感数据</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球（有陆地，海洋未知）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMS 再分析 | ECMWF --- CAMS Reanalysis | ECMWF</t>
+  </si>
+  <si>
+    <t>0.75×0.75°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自CAMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAMS global inversion-optimised greenhouse gas fluxes and concentrations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CASMS Reanalysis(借助 EGG4分析)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERA5 Explorer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球陆地与海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1979-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31km/63km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERA5大气数据（温度等）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过MIR插值工具得到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全球陆地和海洋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERA5: data documentation - Copernicus Knowledge Base - ECMWF Confluence Wiki</t>
+  </si>
+  <si>
+    <t>SCIAMACHY/ENVISAT and TANSO-FTS/GOSAT</t>
+  </si>
+  <si>
+    <t>ppm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5°×5°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Carbon dioxide data from 2002 to present derived from satellite observations</t>
+  </si>
+  <si>
+    <t>全球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2003-2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACOS_L2S</t>
+  </si>
+  <si>
+    <t>GOSAT/TANSO-FTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.5 km x 10.5 km</t>
+  </si>
+  <si>
+    <t>2009-2020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ppm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GES DISC 数据集：ACOS GOSAT/TANSO-FTS Level 2 Full Physics Standard Product V9r (ACOS_L2S 9r) --- GES DISC Dataset: ACOS GOSAT/TANSO-FTS Level 2 Full Physics Standard Product V9r (ACOS_L2S 9r) (nasa.gov)</t>
+  </si>
+  <si>
+    <t>ACOS_L2_Lite_FP</t>
+  </si>
+  <si>
+    <t>2009-2021</t>
+  </si>
+  <si>
+    <t>一</t>
+  </si>
+  <si>
+    <t>10.5 km x 10.6 km</t>
+  </si>
+  <si>
+    <t>GES DISC 数据集：ACOS GOSAT/TANSO-FTS 第 2 级偏差校正 XCO2 和来自全物理检索的其他选定字段，以每日文件 V9r 形式汇总（ACOS_L2_Lite_FP 9r） --- GES DISC Dataset: ACOS GOSAT/TANSO-FTS Level 2 bias-corrected XCO2 and other select fields from the full-physics retrieval aggregated as daily files V9r (ACOS_L2_Lite_FP 9r) (nasa.gov)</t>
+  </si>
+  <si>
+    <t>全球海洋观测系统总柱水汽（TCWV）气候</t>
+  </si>
+  <si>
+    <t>1995-2015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOME 水柱气候产品 - 地球在线 --- GOME Total Column Water Vapour Climate product - Earth Online (esa.int)</t>
+  </si>
+  <si>
+    <t>去欧空局的网站上看了SCIAMACHY的数据，没看到有二氧化碳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATMOSL2AF</t>
+  </si>
+  <si>
+    <t>-180.0,-73.0,180.0,75.0</t>
+  </si>
+  <si>
+    <t>2km×2km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>航空遥感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1985-1994事实上每年的数据不超过一周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASCII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GES DISC Dataset: ATMOS L2 Trace Gases on Altitude Grid, Fixed Field Format V3 (ATMOSL2AF 3) (nasa.gov)</t>
+  </si>
+  <si>
+    <t>GES DISC 数据集：AIRS/Aqua L1B 校准子集 V005 (AIRXBCAL 005) --- GES DISC Dataset: AIRS/Aqua L1B Calibration subset V005 (AIRXBCAL 005) (nasa.gov)</t>
+  </si>
+  <si>
+    <t>AIRS3STM</t>
+  </si>
+  <si>
+    <t>AIRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GES DISC 数据集：Aqua/AIRS L3 每月标准物理检索（仅 AIRS）1 度 x 1 度 V7.0 (AIRS3STM 7.0) --- GES DISC Dataset: Aqua/AIRS L3 Monthly Standard Physical Retrieval (AIRS-only) 1 degree x 1 degree V7.0 (AIRS3STM 7.0) (nasa.gov)</t>
+  </si>
+  <si>
+    <t>包含大气热力学参数，包括表皮温度（陆地和海面）、表层气温、气温和水汽剖面、对流层顶特征、柱状可降水量、云量/频率、云高、云顶气压、云顶温度、反射率、发射率、表面气压、云垂直分布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 ° x 1 °</t>
+  </si>
+  <si>
+    <t>全球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002-2024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDF-EOS</t>
+  </si>
+  <si>
+    <t>AIRX2SPC</t>
+  </si>
+  <si>
+    <t>AIRS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002-2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50 km x 50 km</t>
+  </si>
+  <si>
+    <t>GES DISC 数据集：AIRS/Aqua L2 CO2 支持检索（AIRS+AMSU）V005 (AIRX2SPC 005) --- GES DISC Dataset: AIRS/Aqua L2 CO2 support retrieval (AIRS+AMSU) V005 (AIRX2SPC 005) (nasa.gov)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +499,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="ESA"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -223,10 +594,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,23 +914,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="24.36328125" customWidth="1"/>
     <col min="2" max="2" width="14.26953125" customWidth="1"/>
     <col min="3" max="3" width="14.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.7265625" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="14.36328125" customWidth="1"/>
     <col min="9" max="9" width="23.36328125" customWidth="1"/>
     <col min="10" max="10" width="26.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>16</v>
       </c>
@@ -580,7 +964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -609,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -641,7 +1025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>33</v>
       </c>
@@ -654,7 +1038,7 @@
       <c r="E4" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G4" t="s">
@@ -668,6 +1052,282 @@
       </c>
       <c r="J4" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41.5">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="62">
+      <c r="A9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+      <c r="J9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H11" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="F17" s="8"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="F18" s="8"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -675,8 +1335,18 @@
   <hyperlinks>
     <hyperlink ref="I3" r:id="rId1"/>
     <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="I5" r:id="rId3" location="!/dataset/cams-global-greenhouse-gas-inversion?tab=overview" display="!/dataset/cams-global-greenhouse-gas-inversion?tab=overview"/>
+    <hyperlink ref="I6" r:id="rId4" display="https://www.ecmwf.int/en/research/climate-reanalysis/cams-reanalysis"/>
+    <hyperlink ref="I8" r:id="rId5" display="https://confluence.ecmwf.int/display/CKB/ERA5%3A+data+documentation"/>
+    <hyperlink ref="I10" r:id="rId6" display="https://disc.gsfc.nasa.gov/datasets/ACOS_L2S_9r/summary?keywords=TANSO"/>
+    <hyperlink ref="I11" r:id="rId7" display="https://disc.gsfc.nasa.gov/datasets/ACOS_L2_Lite_FP_9r/summary?keywords=TANSO"/>
+    <hyperlink ref="I14" r:id="rId8" display="https://earth.esa.int/eogateway/catalog/gome-total-column-water-vapour-climate-product"/>
+    <hyperlink ref="I12" r:id="rId9" display="https://disc.gsfc.nasa.gov/datasets/ATMOSL2AF_3/summary?keywords=Carbon"/>
+    <hyperlink ref="A23" r:id="rId10" display="https://disc.gsfc.nasa.gov/datasets/AIRXBCAL_005/summary?keywords=CO2"/>
+    <hyperlink ref="I16" r:id="rId11" display="https://disc.gsfc.nasa.gov/datasets/AIRS3STM_7.0/summary?keywords=AIRS"/>
+    <hyperlink ref="I13" r:id="rId12" display="https://disc.gsfc.nasa.gov/datasets/AIRX2SPC_005/summary?keywords=AIRS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>